--- a/pearson_tables/tp_netherlands_cumul-3-2.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-3-2.xlsx
@@ -457,12 +457,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7391865726260528</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5540013524294164</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -471,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6727914386539801</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5057685674982183</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5778852227653929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6421886577580567</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5594553801620659</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7422653175225651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6968341465259406</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5250054042792879</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6858430820143966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7011045211702719</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4744655331087899</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5616189443274493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -535,10 +537,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7179046300065927</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -547,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7287627373302054</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5128815250431444</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6706977630129622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -563,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5943815032844604</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.508687689186728</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6549951580955575</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
